--- a/data/trans_orig/P14A15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81372091-B591-4A13-B67F-ABBCD0914EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A45213-1B9A-423F-9D20-A98D578C8D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93541EC6-F635-49D8-A7A6-CFEA6203B3BC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0BDA66A-D44A-42A2-A21B-93ACADD2D261}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="188">
   <si>
     <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2012 (Tasa respuesta: 1,31%)</t>
   </si>
@@ -117,55 +117,55 @@
     <t>21,99%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>39,45%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
   </si>
   <si>
     <t>78,01%</t>
   </si>
   <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
   <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>60,55%</t>
   </si>
   <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -174,49 +174,49 @@
     <t>76,14%</t>
   </si>
   <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>41,43%</t>
+    <t>41,79%</t>
   </si>
   <si>
     <t>79,01%</t>
   </si>
   <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>58,57%</t>
+    <t>58,21%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -225,49 +225,49 @@
     <t>43,5%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>59,29%</t>
+    <t>59,28%</t>
   </si>
   <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>40,71%</t>
+    <t>40,72%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -276,97 +276,91 @@
     <t>85,73%</t>
   </si>
   <si>
-    <t>53,76%</t>
+    <t>57,16%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>28,72%</t>
+    <t>33,03%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>46,24%</t>
+    <t>42,84%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>71,28%</t>
+    <t>66,97%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>91,37%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
+    <t>8,63%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -384,79 +378,79 @@
     <t>81,3%</t>
   </si>
   <si>
-    <t>30,89%</t>
+    <t>29,07%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>50,9%</t>
+    <t>37,32%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>69,11%</t>
+    <t>70,93%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>49,1%</t>
+    <t>62,68%</t>
   </si>
   <si>
     <t>67,59%</t>
   </si>
   <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>67,41%</t>
   </si>
   <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>32,41%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
   </si>
   <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
   </si>
   <si>
     <t>60,04%</t>
@@ -468,16 +462,16 @@
     <t>93,33%</t>
   </si>
   <si>
-    <t>71,27%</t>
+    <t>64,85%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>39,96%</t>
@@ -489,124 +483,124 @@
     <t>6,67%</t>
   </si>
   <si>
-    <t>28,73%</t>
+    <t>35,15%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
   </si>
   <si>
     <t>60,71%</t>
   </si>
   <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
   </si>
   <si>
     <t>70,18%</t>
   </si>
   <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>63,91%</t>
   </si>
   <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
   </si>
   <si>
     <t>39,29%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
   </si>
   <si>
     <t>29,82%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
   </si>
   <si>
     <t>36,09%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
   </si>
   <si>
     <t>35,39%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFB0E25-A084-4361-B2C2-434EAF6B47FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C02386C-DD3B-439E-B390-D9EBBDBA1D82}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1935,10 +1929,10 @@
         <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -1947,13 +1941,13 @@
         <v>63850</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,13 +1962,13 @@
         <v>23014</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1983,13 +1977,13 @@
         <v>7234</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -1998,13 +1992,13 @@
         <v>30249</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,7 +2054,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2081,7 +2075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7901BD-F5FF-49E7-B942-129FF39A78F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7325C95-88BA-460D-8E59-4A19D666771F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2098,7 +2092,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2238,7 +2232,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -2292,7 +2286,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,10 +2369,10 @@
         <v>5239</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2390,10 +2384,10 @@
         <v>6159</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2426,13 +2420,13 @@
         <v>1205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2441,13 +2435,13 @@
         <v>1205</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2509,13 @@
         <v>6244</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -2530,13 +2524,13 @@
         <v>13701</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2545,13 +2539,13 @@
         <v>19944</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2560,13 @@
         <v>2994</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2581,13 +2575,13 @@
         <v>6646</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2596,13 +2590,13 @@
         <v>9641</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,10 +2664,10 @@
         <v>2676</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2685,10 +2679,10 @@
         <v>17418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2700,13 +2694,13 @@
         <v>20094</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2715,13 @@
         <v>1780</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2736,13 +2730,13 @@
         <v>1244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2751,13 +2745,13 @@
         <v>3024</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2819,13 @@
         <v>12012</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2840,13 +2834,13 @@
         <v>7086</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -2855,13 +2849,13 @@
         <v>19097</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2870,13 @@
         <v>7774</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2891,13 +2885,13 @@
         <v>3010</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2906,13 +2900,13 @@
         <v>10785</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2974,13 @@
         <v>22911</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -2995,13 +2989,13 @@
         <v>44337</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -3010,13 +3004,13 @@
         <v>67248</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3025,13 @@
         <v>12550</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3046,13 +3040,13 @@
         <v>12106</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -3061,13 +3055,13 @@
         <v>24655</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,7 +3117,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A15-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A45213-1B9A-423F-9D20-A98D578C8D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD425AE6-EB95-4D05-8F37-42DEE47A489F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0BDA66A-D44A-42A2-A21B-93ACADD2D261}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{01F9EC33-EB27-4080-86FA-AE7229DE3BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -111,163 +111,163 @@
     <t>77,35%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>21,99%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
   </si>
   <si>
     <t>39,45%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>78,01%</t>
   </si>
   <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
   </si>
   <si>
     <t>60,55%</t>
   </si>
   <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>41,79%</t>
+    <t>41,58%</t>
   </si>
   <si>
     <t>79,01%</t>
   </si>
   <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>58,21%</t>
+    <t>58,42%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>43,5%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>59,28%</t>
+    <t>59,52%</t>
   </si>
   <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>40,72%</t>
+    <t>40,48%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -276,97 +276,103 @@
     <t>85,73%</t>
   </si>
   <si>
-    <t>57,16%</t>
+    <t>54,99%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>33,03%</t>
+    <t>32,76%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>42,84%</t>
+    <t>45,01%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>66,97%</t>
+    <t>67,24%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>91,37%</t>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>8,63%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2015 (Tasa respuesta: 1,34%)</t>
+    <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2016 (Tasa respuesta: 1,34%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -378,82 +384,79 @@
     <t>81,3%</t>
   </si>
   <si>
-    <t>29,07%</t>
+    <t>32,9%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>37,32%</t>
+    <t>37,47%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>70,93%</t>
+    <t>67,1%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>62,68%</t>
+    <t>62,53%</t>
   </si>
   <si>
     <t>67,59%</t>
   </si>
   <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>67,41%</t>
   </si>
   <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>32,41%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
   </si>
   <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
   </si>
   <si>
     <t>18,2%</t>
@@ -462,19 +465,16 @@
     <t>93,33%</t>
   </si>
   <si>
-    <t>64,85%</t>
+    <t>67,96%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>81,8%</t>
@@ -483,124 +483,124 @@
     <t>6,67%</t>
   </si>
   <si>
-    <t>35,15%</t>
+    <t>32,04%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
   </si>
   <si>
     <t>60,71%</t>
   </si>
   <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
   </si>
   <si>
     <t>70,18%</t>
   </si>
   <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>63,91%</t>
   </si>
   <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>39,29%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>29,82%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
   </si>
   <si>
     <t>36,09%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>35,39%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C02386C-DD3B-439E-B390-D9EBBDBA1D82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940B4793-D769-4AE5-975E-C08C35643CC9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1929,10 +1929,10 @@
         <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -1941,13 +1941,13 @@
         <v>63850</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,13 +1962,13 @@
         <v>23014</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1977,13 +1977,13 @@
         <v>7234</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -1992,13 +1992,13 @@
         <v>30249</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,7 +2054,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +2075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7325C95-88BA-460D-8E59-4A19D666771F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EF3DE8-BFEC-4258-9598-EE7E1B50405D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2092,7 +2092,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2232,7 +2232,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -2286,7 +2286,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,10 +2369,10 @@
         <v>5239</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2384,10 +2384,10 @@
         <v>6159</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2420,13 +2420,13 @@
         <v>1205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2435,13 +2435,13 @@
         <v>1205</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2509,13 @@
         <v>6244</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -2524,13 +2524,13 @@
         <v>13701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2539,13 +2539,13 @@
         <v>19944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2560,13 @@
         <v>2994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2575,13 +2575,13 @@
         <v>6646</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2590,13 +2590,13 @@
         <v>9641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,10 +2664,10 @@
         <v>2676</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2679,10 +2679,10 @@
         <v>17418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2694,13 +2694,13 @@
         <v>20094</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,7 +2715,7 @@
         <v>1780</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
